--- a/tgbot/data/locales/local.xlsx
+++ b/tgbot/data/locales/local.xlsx
@@ -15,19 +15,157 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Ключевой текст</t>
   </si>
   <si>
-    <t>Қазақша</t>
+    <t>UZB</t>
+  </si>
+  <si>
+    <t>Введите ваше имя</t>
+  </si>
+  <si>
+    <t>Выберите язык</t>
+  </si>
+  <si>
+    <t>Вы успешно авторизовались.</t>
+  </si>
+  <si>
+    <t>Ваша корзина</t>
+  </si>
+  <si>
+    <t>В корзине пусто</t>
+  </si>
+  <si>
+    <t>Прикрепить чек</t>
+  </si>
+  <si>
+    <t>Назад на главную</t>
+  </si>
+  <si>
+    <t>Скиньте скриншот чека или pdf</t>
+  </si>
+  <si>
+    <t>Вы отправили не правильный файл, пожалуйста Скиньте скриншот чека или файл в формате pdf</t>
+  </si>
+  <si>
+    <t>Ваш файл не в формате pdf. Cкиньте скриншот чека или файл в формате pdf</t>
+  </si>
+  <si>
+    <t>Спасибо за покупку, скоро администратор примет вашу заявку</t>
+  </si>
+  <si>
+    <t>Выберите товар</t>
+  </si>
+  <si>
+    <t>Нет товаров в наличи</t>
+  </si>
+  <si>
+    <t>Поделитесь номером телефона для авторизации</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Ваш заказ</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Для оплаты перейдите по &lt;a href = "https://www.google.kz/?hl=ru"&gt;ссылке&lt;/a&gt; и оплатите</t>
+  </si>
+  <si>
+    <t>Чек оплаты прикрепить, нажав кнопку "Прикрепить чек" ниже (скриншот чека или pdf)</t>
+  </si>
+  <si>
+    <t>Поделиться телефоном</t>
+  </si>
+  <si>
+    <t>Каталог</t>
+  </si>
+  <si>
+    <t>Корзина</t>
+  </si>
+  <si>
+    <t>FAQ</t>
+  </si>
+  <si>
+    <t>Контакты</t>
+  </si>
+  <si>
+    <t>Сменить язык</t>
+  </si>
+  <si>
+    <t>Назад</t>
+  </si>
+  <si>
+    <t>Купить</t>
+  </si>
+  <si>
+    <t>Очистить корзину</t>
+  </si>
+  <si>
+    <t>Новый заказ!</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Мобильный телефон</t>
+  </si>
+  <si>
+    <t>Заказ</t>
+  </si>
+  <si>
+    <t>Вы сменили язык</t>
+  </si>
+  <si>
+    <t>Ederra Lab 01 Sulfate Free шампунь 600 мл</t>
+  </si>
+  <si>
+    <t>Ederra Lab 01 шампунь 600 мл</t>
+  </si>
+  <si>
+    <t>Ederra Lab 03 спрей-кондиционер 200 мл</t>
+  </si>
+  <si>
+    <t>Ederra Lab 02 Intense Moisture Mask маска 600 мл</t>
+  </si>
+  <si>
+    <t>Ederra Lab 01 Sulfate Free шампунь 300 мл</t>
+  </si>
+  <si>
+    <t>Ederra Lab 01 шампунь 300 мл</t>
+  </si>
+  <si>
+    <t>придание блеска, увлажнение, питание, укрепление, придание эластичности, восстановление, очищение, защита</t>
+  </si>
+  <si>
+    <t>увлажнение, питание, разглаживание, укрепление, придание эластичности, антистатический эффект, против секущихся концов, защита, восстановление</t>
+  </si>
+  <si>
+    <t>Содержит комплекс витаминов А, В, Е, F, D, высокую концентрацию активного ингредиента листьев чайного дерева и гидролизованный коллаген. Восстанавливает волосы на молекулярном уровне. Питает и укрепляет, увлажняет волосы и кожу головы, оказывает себорегулирующее воздействие. Придаёт волосам мягкость, эластичность, естественный блеск и упругость.</t>
+  </si>
+  <si>
+    <t>Специальная концентрированная формула изготовлена на натуральной основе листьев чайного дерева. Содержит комплекс витаминов А, В, E, F, D, коллаген и экстракт листьев алоэ Barbadensis.</t>
+  </si>
+  <si>
+    <t>Специальная концентрированная формула изготовлена на натуральной основе листьев чайного дерева. Эффективно и бережно очищает волосы и кожу головы, исключая их пересушивание.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -35,9 +173,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -64,7 +213,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -275,15 +424,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="92.5703125" customWidth="1"/>
+    <col min="1" max="1" width="102.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
   </cols>
   <sheetData>
@@ -291,12 +440,263 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A36" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A37" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A40" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A43" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A44" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A45" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A46" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A47" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A48" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A49" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A50" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A51" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/tgbot/data/locales/local.xlsx
+++ b/tgbot/data/locales/local.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="125">
   <si>
     <t>Ключевой текст</t>
   </si>
@@ -159,6 +159,259 @@
   </si>
   <si>
     <t>Специальная концентрированная формула изготовлена на натуральной основе листьев чайного дерева. Эффективно и бережно очищает волосы и кожу головы, исключая их пересушивание.</t>
+  </si>
+  <si>
+    <t>Ismingizni kiriting</t>
+  </si>
+  <si>
+    <t>Tilni tanlang</t>
+  </si>
+  <si>
+    <t>Siz muvaffaqiyatli tizimga kirdingiz.</t>
+  </si>
+  <si>
+    <t>Sizning savatingiz</t>
+  </si>
+  <si>
+    <t>Arava bo‘sh</t>
+  </si>
+  <si>
+    <t>Chekni biriktiring</t>
+  </si>
+  <si>
+    <t>Uyga qaytish</t>
+  </si>
+  <si>
+    <t>Kvitansiya yoki pdf skrinshotini joylashtiring</t>
+  </si>
+  <si>
+    <t>Siz noto‘g‘ri fayl yubordingiz, iltimos kvitansiyaning skrinshotini yoki pdf faylini yuboring</t>
+  </si>
+  <si>
+    <t>Sizning faylingiz pdf formatida emas. Kvitansiyaning skrinshotini yoki pdf faylini yuboring</t>
+  </si>
+  <si>
+    <t>Xaridingiz uchun rahmat, administrator tez orada so'rovingizni qabul qiladi</t>
+  </si>
+  <si>
+    <t>Mahsulotni tanlang</t>
+  </si>
+  <si>
+    <t>Stokda mahsulotlar yo'q</t>
+  </si>
+  <si>
+    <t>Avtorizatsiya uchun telefon raqamingizni ulashing</t>
+  </si>
+  <si>
+    <t>Ism</t>
+  </si>
+  <si>
+    <t>Tavsif</t>
+  </si>
+  <si>
+    <t>Narxi</t>
+  </si>
+  <si>
+    <t>Sizning buyurtmangiz</t>
+  </si>
+  <si>
+    <t>Jami</t>
+  </si>
+  <si>
+    <t>Toʻlash uchun &lt;a href = "https://www.google.kz/?hl=ru"&gt;havolaga&lt;/a&gt; oʻting va toʻlang.</t>
+  </si>
+  <si>
+    <t>Quyidagi “Kvitansiyani biriktirish” tugmasini bosish orqali toʻlov kvitansiyasini ilova qiling (kvitansiyaning skrinshoti yoki pdf)</t>
+  </si>
+  <si>
+    <t>Telefonni ulashing</t>
+  </si>
+  <si>
+    <t>Katalog</t>
+  </si>
+  <si>
+    <t>Savat</t>
+  </si>
+  <si>
+    <t>TSS</t>
+  </si>
+  <si>
+    <t>Kontaktlar</t>
+  </si>
+  <si>
+    <t>Tilni o'zgartirish</t>
+  </si>
+  <si>
+    <t>Orqaga</t>
+  </si>
+  <si>
+    <t>Sotib olish</t>
+  </si>
+  <si>
+    <t>Chiqindini bo'shatish</t>
+  </si>
+  <si>
+    <t>Yangi buyurtma!</t>
+  </si>
+  <si>
+    <t>Mobil telefon</t>
+  </si>
+  <si>
+    <t>Buyurtma</t>
+  </si>
+  <si>
+    <t>Siz tilingizni o'zgartirdingiz</t>
+  </si>
+  <si>
+    <t>Ederra Lab 01 Sulfatsiz shampun 600 ml</t>
+  </si>
+  <si>
+    <t>Ederra Lab 01 shampun 600 ml</t>
+  </si>
+  <si>
+    <t>Ederra Lab 03 konditsioner spreyi 200 ml</t>
+  </si>
+  <si>
+    <t>Ederra Lab 02 Intense Moisture Mask niqobi 600 ml</t>
+  </si>
+  <si>
+    <t>Ederra Lab 01 Sulfatsiz shampun 300 ml</t>
+  </si>
+  <si>
+    <t>Ederra Lab 01 shampun 300 ml</t>
+  </si>
+  <si>
+    <t>porlash, namlash, oziqlantirish, mustahkamlash, elastiklik berish, tiklash, tozalash, himoya qilish</t>
+  </si>
+  <si>
+    <t>namlash, oziqlantirish, silliqlash, mustahkamlash, elastiklik berish, antistatik ta'sir, bo'lingan uchlardan himoya qilish, tiklash</t>
+  </si>
+  <si>
+    <t>Bizning kompaniya do'konimizga xush kelibsiz
+Mahsulotlarni tanlash uchun quyidagi asosiy menyudagi Katalogga o'ting</t>
+  </si>
+  <si>
+    <t>Добро пожаловать в магазин нашей компании
+Для выбора продукции перейдите в Каталог в главном меню ниже</t>
+  </si>
+  <si>
+    <t>A, B, E, F, D vitaminlari majmuasini, choy daraxti barglarining faol moddasi va gidrolizlangan kollagenning yuqori konsentratsiyasini o'z ichiga oladi. Sochni molekulyar darajada tiklaydi. Soch va bosh terisini oziqlantiradi va mustahkamlaydi, namlaydi, yog'ni tartibga soluvchi ta'sirga ega. Sochga yumshoqlik, elastiklik, tabiiy porlash va elastiklik beradi.</t>
+  </si>
+  <si>
+    <t>Maxsus konsentrlangan formula choy daraxti barglarining tabiiy bazasidan tayyorlanadi. A, B, E, F, D vitaminlari majmuasi, kollagen va aloe Barbadensis barglari ekstrakti mavjud.</t>
+  </si>
+  <si>
+    <t>Maxsus konsentrlangan formula choy daraxti barglarining tabiiy bazasidan tayyorlanadi. Soch va bosh terisini samarali va muloyimlik bilan tozalaydi, ortiqcha quritishni oldini oladi.</t>
+  </si>
+  <si>
+    <t>rus</t>
+  </si>
+  <si>
+    <t>Русский</t>
+  </si>
+  <si>
+    <t>Узбекский</t>
+  </si>
+  <si>
+    <t>o'zbek</t>
+  </si>
+  <si>
+    <t>- Sulfat shampun: soch va bosh terisidan ortiqcha yog ' va kirni samarali tozalaydi va olib tashlaydi. Chuqur tozalash va tazelik tuyg'usini izlayotganlar uchun mos bo'lishi mumkin. Bundan tashqari, u ko'proq ko'pikka ega.
+- Sulfatsiz shampun: sochlarning tabiiy yog'larini saqlab, yumshoqroq tozalaydi. Tez-tez foydalanish uchun, ayniqsa sezgir bosh terisi va qayta ishlangan sochlar uchun javob beradi.
+Ushbu shampunlarni tanlash tozalik hissi va soch turiga nisbatan shaxsiy xohishingizga bog'liq.</t>
+  </si>
+  <si>
+    <t>03 спрей после использования обогащает волосы аминокислотами и белком, микроколлагеном, делая кортикальный слой волос более прочным, эластичным и здоровым.
+Среди  ингредиентов в составе имеется амодиметикон. Он образовывает на волосах защитную пленку, предотвращающую повреждение волос от высоких температур при укладке. Таким образом, служит компонентом, обеспечивающим определенный уровень термозащиты.</t>
+  </si>
+  <si>
+    <t>03 foydalanishdan keyin buzadigan amallar sochlarni aminokislotalar va oqsil, mikrokollagen bilan boyitadi, bu esa sochlarning kortikal qatlamini yanada mustahkam, elastik va sog'lom qiladi.
+Tarkibdagi ingredientlar orasida amodimetikon mavjud. U sochlarga himoya plyonka hosil qiladi, bu esa soch turmagi paytida yuqori haroratdan sochlarning shikastlanishiga yo'l qo'ymaydi. Shunday qilib, u ma'lum darajada termal himoyani ta'minlaydigan komponent bo'lib xizmat qiladi.</t>
+  </si>
+  <si>
+    <t>so'm</t>
+  </si>
+  <si>
+    <t>сум</t>
+  </si>
+  <si>
+    <t>Spray konditsioner (03), u qanday yordam beradi?</t>
+  </si>
+  <si>
+    <t>Sulfatli va sulfatsiz shampunlar o'rtasidagi farq</t>
+  </si>
+  <si>
+    <t>Сотрудничество</t>
+  </si>
+  <si>
+    <t>Hamkorlik</t>
+  </si>
+  <si>
+    <t>- Шампунь с сульфатом: Эффективно очищает и удаляет излишки масла и грязи с волос и кожи головы. Может подойти для тех, кто ищет глубокое очищение и чувство свежести. Также у него больше пенообразования.
+- Шампунь без сульфата: Более мягко очищает, сохраняя естественные масла волос. Подходит для частого использования, особенно для чувствительной кожи головы и обработанных волос.
+Выбор между этими шампунями зависит от Ваших личных предпочтений в плане ощущения чистоты и типа волос.</t>
+  </si>
+  <si>
+    <t>Разница шампуня с сульфатом и без</t>
+  </si>
+  <si>
+    <t>Как помогает спрей кондиционер</t>
+  </si>
+  <si>
+    <t>По поводу сотрудничества:
+Заполните анкету так и отправьте одним сообщением:
+&lt;i&gt;Имя представителя&lt;/i&gt;
+&lt;i&gt;Должность&lt;/i&gt;
+&lt;i&gt;Город&lt;/i&gt;
+&lt;i&gt;Соц.сети&lt;/i&gt;
+&lt;i&gt;Сайт&lt;/i&gt;
+&lt;i&gt;Телефон&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Hamkorlik haqida:
+Shaklni to'ldiring va uni bitta xabarda yuboring:
+&lt;i&gt;Vakil nomi&lt;/i&gt;
+&lt;i&gt;Pozitsiya&lt;/i&gt;
+&lt;i&gt;Shahar&lt;/i&gt;
+&lt;i&gt;Ijtimoiy tarmoqlar&lt;/i&gt;
+&lt;i&gt;Veb-sayt&lt;/i&gt;
+&lt;i&gt;Telefon&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Подтвердите пожалуйста!</t>
+  </si>
+  <si>
+    <t>Вы написали:</t>
+  </si>
+  <si>
+    <t>Tasdiqlang Iltimos!</t>
+  </si>
+  <si>
+    <t>Siz yozgansiz:</t>
+  </si>
+  <si>
+    <t>Спасибо за обращение, мы скоро с вами свяжемся</t>
+  </si>
+  <si>
+    <t>Biz bilan bog'langaningiz uchun tashakkur, tez orada siz bilan bog'lanamiz</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Изменить текст</t>
+  </si>
+  <si>
+    <t>Ha</t>
+  </si>
+  <si>
+    <t>Matnni o'zgartirish</t>
+  </si>
+  <si>
+    <t>Пришло новое обращение по сотрудничеству!</t>
+  </si>
+  <si>
+    <t>Hamkorlik uchun yangi so'rov keldi!</t>
   </si>
 </sst>
 </file>
@@ -210,10 +463,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -424,15 +685,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD52"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="102.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="101.7109375" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
   </cols>
   <sheetData>
@@ -448,250 +709,520 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B9" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B10" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B11" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B12" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B13" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B14" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B15" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B16" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B17" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B18" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B19" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B20" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B21" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B22" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B23" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B24" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B25" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B26" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B27" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B28" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B29" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B30" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B31" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B32" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B33" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B34" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B35" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B36" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B37" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B38" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B39" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B40" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B41" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B42" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B43" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B44" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B45" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="15.75" customHeight="1">
+      <c r="B46" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="15.75" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1">
+        <v>45</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="15.75" customHeight="1">
+        <v>46</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A51" s="2" t="s">
         <v>47</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A51" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A54" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A55" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A56" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A57" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A60" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A62" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A64" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A65" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A66" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/tgbot/data/locales/local.xlsx
+++ b/tgbot/data/locales/local.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\EderraLabBot\tgbot\data\locales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deaspecty\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920EEF94-5214-43A5-A1FE-C90BBD336655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D03E01AA-B083-42BA-9B26-BF72BC569EC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,671 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="193">
+  <si>
+    <t>Ключевой текст</t>
+  </si>
+  <si>
+    <t>Введите ваше имя</t>
+  </si>
+  <si>
+    <t>Выберите язык</t>
+  </si>
+  <si>
+    <t>Вы успешно авторизовались.</t>
+  </si>
+  <si>
+    <t>Ваша корзина</t>
+  </si>
+  <si>
+    <t>В корзине пусто</t>
+  </si>
+  <si>
+    <t>Прикрепить чек</t>
+  </si>
+  <si>
+    <t>Назад на главную</t>
+  </si>
+  <si>
+    <t>Вы отправили не правильный файл, пожалуйста Скиньте скриншот чека или файл в формате pdf</t>
+  </si>
+  <si>
+    <t>Ваш файл не в формате pdf. Cкиньте скриншот чека или файл в формате pdf</t>
+  </si>
+  <si>
+    <t>Выберите товар</t>
+  </si>
+  <si>
+    <t>Нет товаров в наличи</t>
+  </si>
+  <si>
+    <t>Поделитесь номером телефона для авторизации</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Ваш заказ</t>
+  </si>
+  <si>
+    <t>Чек оплаты прикрепить, нажав кнопку "Прикрепить чек" ниже (скриншот чека или pdf)</t>
+  </si>
+  <si>
+    <t>Поделиться телефоном</t>
+  </si>
+  <si>
+    <t>Каталог</t>
+  </si>
+  <si>
+    <t>Корзина</t>
+  </si>
+  <si>
+    <t>FAQ</t>
+  </si>
+  <si>
+    <t>Контакты</t>
+  </si>
+  <si>
+    <t>Сменить язык</t>
+  </si>
+  <si>
+    <t>Назад</t>
+  </si>
+  <si>
+    <t>Купить</t>
+  </si>
+  <si>
+    <t>Очистить корзину</t>
+  </si>
+  <si>
+    <t>Новый заказ!</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Мобильный телефон</t>
+  </si>
+  <si>
+    <t>Заказ</t>
+  </si>
+  <si>
+    <t>Вы сменили язык</t>
+  </si>
+  <si>
+    <t>Добро пожаловать в магазин нашей компании
+Для выбора продукции перейдите в Каталог в главном меню ниже</t>
+  </si>
+  <si>
+    <t>Русский</t>
+  </si>
+  <si>
+    <t>Сотрудничество</t>
+  </si>
+  <si>
+    <t>Подтвердите пожалуйста!</t>
+  </si>
+  <si>
+    <t>Вы написали:</t>
+  </si>
+  <si>
+    <t>Спасибо за обращение, мы скоро с вами свяжемся</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Изменить текст</t>
+  </si>
+  <si>
+    <t>Пришло новое обращение по сотрудничеству!</t>
+  </si>
+  <si>
+    <t>Вы можете связаться с нами по этому номеру</t>
+  </si>
+  <si>
+    <t>KAZ</t>
+  </si>
+  <si>
+    <t>Атыңызды енгізіңіз</t>
+  </si>
+  <si>
+    <t>Тілді таңдаңыз</t>
+  </si>
+  <si>
+    <t>Сіз сәтті кірдіңіз</t>
+  </si>
+  <si>
+    <t>Сіздің себетіңіз</t>
+  </si>
+  <si>
+    <t>Себетте бос</t>
+  </si>
+  <si>
+    <t>Чекті тіркеу</t>
+  </si>
+  <si>
+    <t>Үйге оралу</t>
+  </si>
+  <si>
+    <t>Чек скриншотын немесе PDF файлын жіберіңіз</t>
+  </si>
+  <si>
+    <t>Сіз дұрыс емес файл жібердіңіз, чектің скриншотын немесе PDF файлын жіберіңіз</t>
+  </si>
+  <si>
+    <t>Сіздің файлыңыз pdf форматында емес. Чек скриншотын немесе файлды pdf форматында жіберіңіз</t>
+  </si>
+  <si>
+    <t>Сатып алғаныңызға рахмет! Жақында әкімші Сіздің өтінішіңізді қабылдайды.</t>
+  </si>
+  <si>
+    <t>Өнімді таңдаңыз</t>
+  </si>
+  <si>
+    <t>Қоймада өнім жоқ</t>
+  </si>
+  <si>
+    <t>Авторизация үшін телефон нөміріңізді бөлісіңіз</t>
+  </si>
+  <si>
+    <t>Атауы</t>
+  </si>
+  <si>
+    <t>Сипаттама</t>
+  </si>
+  <si>
+    <t>Бағасы</t>
+  </si>
+  <si>
+    <t>Сіздің тапсырысыңыз</t>
+  </si>
+  <si>
+    <t>Төлем чегін төмендегі "Чекті Тіркеу" батырмасын басу арқылы тіркеңіз (чек скриншоты немесе pdf)</t>
+  </si>
+  <si>
+    <t>Телефонды бөлісіңіз</t>
+  </si>
+  <si>
+    <t>Себет</t>
+  </si>
+  <si>
+    <t>Жиі қойылатын сұрақтар</t>
+  </si>
+  <si>
+    <t>Байланыс</t>
+  </si>
+  <si>
+    <t>Тілді өзгерту</t>
+  </si>
+  <si>
+    <t>Сатып алу</t>
+  </si>
+  <si>
+    <t>Жаңа тапсырыс</t>
+  </si>
+  <si>
+    <t>Аты</t>
+  </si>
+  <si>
+    <t>Ұялы телефон</t>
+  </si>
+  <si>
+    <t>Тапсырыс</t>
+  </si>
+  <si>
+    <t>Сіз тіліңізді өзгерттіңі</t>
+  </si>
+  <si>
+    <t>Біздің компанияның дүкеніне қош келдіңіз
+Өнімді таңдау үшін төмендегі негізгі мәзірдегі каталогқа өтіңіз</t>
+  </si>
+  <si>
+    <t>Отправьте скриншот чека или pdf</t>
+  </si>
+  <si>
+    <t>Доставка по городу осуществляется со склада Ederra Яндекс курьером согласно их тарифу за счет покупателя! 
+Указать данные получателя 
+Имя
+Адрес полный (адрес должен отображаться на карте Яндекс)
+Телефон для связи!
+Отправки со склада имеются в городах:
+Казахстан: Алматы, Астана, Шимкент, Караганда.
+Узбекистан: Ташкент
+Кыргызстан: Бишкек
+В другие города по Казахстану отправка осуществляется ТК СДЕК со склада Алматы.
+Узбекистан - из Ташкента.
+Оплата за счет покупателя!</t>
+  </si>
+  <si>
+    <t>Қала бойынша жеткізу Ederra Яндекс қоймасынан сатып алушының есебінен олардың тарифіне сәйкес курьер арқылы жүзеге асырылады! 
+Алушының деректерін көрсету 
+Аты
+Мекен-жайы толық (мекен-жайы Яндекс картасында көрсетілуі керек)
+Байланыс үшін Телефон!
+Қоймадан жөнелтілімдер қалаларда бар:
+Алматы, Астана, Шымкент, Қарағанды.
+Қазақстан бойынша басқа қалаларға жөнелтуді Алматы қоймасынан ТК СДЕК жүзеге асырады.
+Сатып алушының есебінен төлеу!</t>
+  </si>
+  <si>
+    <t>Осы номерге хабарласуларыңызға болады</t>
+  </si>
+  <si>
+    <t>Ынтымақтастыққа жаңа сұраныс келді!</t>
+  </si>
+  <si>
+    <t>Мәтінді өзгерту</t>
+  </si>
+  <si>
+    <t>Иә</t>
+  </si>
+  <si>
+    <t>Бізбен хабарласқаныңыз үшін рахмет, біз сізбен жақын арада хабарласамыз</t>
+  </si>
+  <si>
+    <t>Сіз жаздыңыз:</t>
+  </si>
+  <si>
+    <t>Растау өтінемін!</t>
+  </si>
+  <si>
+    <t>Ынтымақтастық</t>
+  </si>
+  <si>
+    <t>Орысша</t>
+  </si>
+  <si>
+    <t>Россия</t>
+  </si>
+  <si>
+    <t>Казахстан</t>
+  </si>
+  <si>
+    <t>Узбекистан</t>
+  </si>
+  <si>
+    <t>Казахский</t>
+  </si>
+  <si>
+    <t>Қазақша</t>
+  </si>
+  <si>
+    <t>Ресей</t>
+  </si>
+  <si>
+    <t>Қазақстан</t>
+  </si>
+  <si>
+    <t>Өзбекстан</t>
+  </si>
+  <si>
+    <t>Қоқысты босату</t>
+  </si>
+  <si>
+    <t>Артқа</t>
+  </si>
+  <si>
+    <t>Выберите ваш регион</t>
+  </si>
+  <si>
+    <t>Аймақты таңдаңыз</t>
+  </si>
+  <si>
+    <t>Заказ принят и готовится к отправке</t>
+  </si>
+  <si>
+    <t>Напишите ответы на вопросы ниже и отправьте одним сообщением в этот же чат:
+&lt;i&gt;Имя представителя&lt;/i&gt;
+&lt;i&gt;Должность&lt;/i&gt;
+&lt;i&gt;Город&lt;/i&gt;
+&lt;i&gt;Соц.сети&lt;/i&gt;
+&lt;i&gt;Сайт&lt;/i&gt;
+&lt;i&gt;Телефон&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Төмендегі сұрақтарға жауаптарыңызды жазыңыз және оларды бір хабарламада сол чатқа жіберіңіз:
+&lt;i&gt;Өкілдің аты&lt;/i&gt;
+&lt;i&gt;Позиция&lt;/i&gt;
+&lt;i&gt;Қала&lt;/i&gt;
+&lt;i&gt;Әлеуметтік желілер&lt;/i&gt;
+&lt;i&gt;Веб-сайт&lt;/i&gt;
+&lt;i&gt;Телефон&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Wildberries (скоро)</t>
+  </si>
+  <si>
+    <t>Я.Маркет (скоро)</t>
+  </si>
+  <si>
+    <t>Uzum (скоро)</t>
+  </si>
+  <si>
+    <t>Wildberries (жақында)</t>
+  </si>
+  <si>
+    <t>Я.Маркет (жақында)</t>
+  </si>
+  <si>
+    <t>Uzum (жақында)</t>
+  </si>
+  <si>
+    <t>Купить на маркетплейсе</t>
+  </si>
+  <si>
+    <t>Базардан сатып алыңыз</t>
+  </si>
+  <si>
+    <t>Сменить локацию</t>
+  </si>
+  <si>
+    <t>Орынды өзгерту</t>
+  </si>
+  <si>
+    <t>Выберите страну</t>
+  </si>
+  <si>
+    <t>Елді таңдаңыз</t>
+  </si>
+  <si>
+    <t>Сіз ел өзгерттіңіз</t>
+  </si>
+  <si>
+    <t>Вы сменили страну</t>
+  </si>
+  <si>
+    <t>Ederra Lab 02 Moisture Mask маска 300 мл</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Итого&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Барлығы&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Для оплаты перейдите по &lt;a href = "https://www.google.kz/?hl=ru"&gt;ссылке&lt;/a&gt; и оплатите</t>
+  </si>
+  <si>
+    <t>Қала ішінде жеткізу Ederra Яндекс қоймасынан сатып алушының есебінен олардың тарифіне сәйкес курьер арқылы жүзеге асырылады!
+Алушы мәліметтерін көрсетіңіз
+Аты
+Толық мекенжай (мекен-жай Яндекс картасында көрсетілуі керек)
+Байланыс телефон нөмірі!
+Қоймадан жеткізілім келесі қалаларда бар:
+Қазақстан: Алматы, Астана, Шымкент, Қарағанды.
+Өзбекстан: Ташкент
+Қырғызстан: Бішкек
+Қазақстанның басқа қалаларына жөнелтуді Алматы қоймасынан ТК СДЭК жүзеге асырады.
+Өзбекстан – Ташкенттен.
+Төлем сатып алушының есебінен!</t>
+  </si>
+  <si>
+    <t>Для авторизации поделитесь, пожалуйста, номером телефона, нажав на кнопку "Поделиться номером" ниже</t>
+  </si>
+  <si>
+    <t>Авторизациялау үшін төмендегі "Нөмірді бөлісу" түймесін басу арқылы телефон нөміріңізді бөлісіңіз</t>
+  </si>
+  <si>
+    <t>Поделиться номером</t>
+  </si>
+  <si>
+    <t>Нөмірді бөлісу</t>
+  </si>
+  <si>
+    <t>Пайдаланушыдан хабарлама</t>
+  </si>
+  <si>
+    <t>Сообщение от пользователя</t>
+  </si>
+  <si>
+    <t>- в городах Алматы, Астана, Шымкент, Караганда со склада Ederra осуществляется Яндекс курьером за счет покупателя согласно тарифу на момент отправки заказа;
+- в другие города Казахстана осуществляется ТК CDEK со склада в городе Алматы за счет покупателя согласно тарифу на момент отправки заказа.</t>
+  </si>
+  <si>
+    <t>- Алматы, Астана, Шымкент, Қарағанды ​​қалаларында Ederra қоймасынан Яндекс курьері тапсырысты жіберу кезіндегі тарифке сәйкес сатып алушының есебінен жүзеге асырылады;
+- Қазақстанның басқа қалаларына ЦДЭК ТК Алматы қаласындағы қоймадан тапсырысты жіберу кезіндегі тарифке сәйкес сатып алушының есебінен жүзеге асырылады.</t>
+  </si>
+  <si>
+    <t>- в городе Ташкент со склада Ederra осуществляется Яндекс курьером за счет покупателя согласно тарифу на момент отправки заказа;
+- в другие города Узбекистана осуществляется ТК CDEK со склада в городе Ташкент за счет покупателя согласно тарифу на момент отправки заказа.</t>
+  </si>
+  <si>
+    <t>- Ташкент қаласында Ederra қоймасынан тапсырысты жіберу кезіндегі тарифке сәйкес сатып алушының есебінен Яндекс курьерімен жүзеге асырылады;
+- Өзбекстанның басқа қалаларына ЦДЭК ТК Ташкент қаласындағы қоймадан тапсырысты жіберу кезіндегі тарифке сәйкес сатып алушының есебінен жүзеге асырылады.</t>
+  </si>
+  <si>
+    <t>Важно! Укажите информацию для доставки после прикрепления чека оплаты.</t>
+  </si>
+  <si>
+    <t>Маңызды! Төлем түбіртегін тіркегеннен кейін жеткізу ақпаратын енгізіңіз.</t>
+  </si>
+  <si>
+    <t>Доставка</t>
+  </si>
+  <si>
+    <t>Жеткізу</t>
+  </si>
+  <si>
+    <t>После прикрепления чека оплаты, указать одним сообщением</t>
+  </si>
+  <si>
+    <t>Төлем түбіртегін тіркегеннен кейін бір хабарламада көрсетіңіз</t>
+  </si>
+  <si>
+    <t>Имя получателя</t>
+  </si>
+  <si>
+    <t>Қабылдаушының аты</t>
+  </si>
+  <si>
+    <t>Полный адрес, который отображается на Яндекс карте</t>
+  </si>
+  <si>
+    <t>Яндекс картасында көрсетілген толық мекенжай</t>
+  </si>
+  <si>
+    <t>Телефон для связи</t>
+  </si>
+  <si>
+    <t>Байланыс телефон нөмірі</t>
+  </si>
+  <si>
+    <t>Ederra Lab 01 шампунь</t>
+  </si>
+  <si>
+    <t>Ederra Lab 01 сусабыны</t>
+  </si>
+  <si>
+    <t>Заполните информацию для доставки:</t>
+  </si>
+  <si>
+    <t>Жеткізу туралы ақпаратты толтырыңыз:</t>
+  </si>
+  <si>
+    <t>paymentsEddera</t>
+  </si>
+  <si>
+    <t>Төлем үшін &lt;a href = "https://pay.kaspi.kz/pay/zzkyicl2" &gt; сілтеме&lt;/a&gt; тармағына өтіңіз және</t>
+  </si>
+  <si>
+    <t>төлеңіз</t>
+  </si>
+  <si>
+    <t>Для оплаты перейдите по &lt;a href = "https://pay.kaspi.kz/pay/zzkyicl2"&gt;ссылке&lt;/a&gt; и оплатите</t>
+  </si>
+  <si>
+    <t>Төлем үшін &lt;a href = "https://www.google.kz/?hl=ru" &gt; сілтеме&lt;/a&gt; тармағына өтіңіз және</t>
+  </si>
+  <si>
+    <t>- Мәскеуде Ederra қоймасынан тапсырысты жіберу кезіндегі тарифке сәйкес сатып алушының есебінен Яндекс курьері жүзеге асырады;
+- Ресейдің басқа қалаларына ТК CDEK Мәскеудегі қоймадан тапсырысты жіберу кезіндегі тарифке сәйкес сатып алушының есебінен жүзеге асырылады.</t>
+  </si>
+  <si>
+    <t>- в городе Москва со склада Ederra осуществляется Яндекс курьером за счет покупателя согласно тарифу на момент отправки заказа;
+- в другие города России осуществляется ТК CDEK со склада в городе Москва за счет покупателя согласно тарифу на момент отправки заказа.</t>
+  </si>
+  <si>
+    <t>Содержит комплекс витаминов A, B, E, F, D, высокую концентрацию активного ингредиента листьев чайного дерева и гидролизованный коллаген. Восстанавливает волосы на молекулярном уровне. Питает и укрепляет, увлажняет волосы и кожу головы</t>
+  </si>
+  <si>
+    <t>Құрамында A, B, E, F, D дәрумендерінің кешені, шай ағашы жапырақтарының белсенді ингредиентінің жоғары концентрациясы және гидролизденген коллаген бар. Шашты молекулалық деңгейде қалпына келтіреді. Шаш пен бас терісін нәрлендіреді және нығайтады, ылғалдандырады</t>
+  </si>
+  <si>
+    <t>СУМКА ДЛЯ ТЕЛЕФОНА</t>
+  </si>
+  <si>
+    <t>Кроссовки Yeezy Boost 350</t>
+  </si>
+  <si>
+    <t>Bvlgari_x000D_
+ИЫҚ СӨМКЕСІ</t>
+  </si>
+  <si>
+    <t>ТЕЛЕФОН СӨМКЕСІ</t>
+  </si>
+  <si>
+    <t>Yeezy Boost 350 Кроссовкасы</t>
+  </si>
+  <si>
+    <t>Сандали</t>
+  </si>
+  <si>
+    <t>Кроссовки</t>
+  </si>
+  <si>
+    <t>Сандалдар</t>
+  </si>
+  <si>
+    <t>Кроссовкалар</t>
+  </si>
+  <si>
+    <t>DIOR сандалдары қара түсті</t>
+  </si>
+  <si>
+    <t>Bvlgari
+СУМКА ЧЕРЕЗ ПЛЕЧО</t>
+  </si>
+  <si>
+    <t>Miu Miu 
+СУМКА КРОСС-БОДИ</t>
+  </si>
+  <si>
+    <t>Miu Miu _x000D_
+КРОСС-ДЕНЕ СӨМКЕСІ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bvlgari СУМКА С ВЕРХНЕЙ РУЧКОЙ </t>
+  </si>
+  <si>
+    <t>Bvlgari СУМКА ЧЕРЕЗ ПЛЕЧО</t>
+  </si>
+  <si>
+    <t>Miu Miu СУМКА КРОСС-БОДИ</t>
+  </si>
+  <si>
+    <t>Сандали DIOR Белые</t>
+  </si>
+  <si>
+    <t>Сандали DIOR Черные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bvlgari жоғарғы тұтқалы сөмке </t>
+  </si>
+  <si>
+    <t>Bvlgari иық сөмкесі</t>
+  </si>
+  <si>
+    <t>Miu Miu кросс-дене сөмкесі</t>
+  </si>
+  <si>
+    <t>Dior сандалдары ақ түсті</t>
+  </si>
+  <si>
+    <t>Свяжитесь с нами по номеру: +7 708 609 6107</t>
+  </si>
+  <si>
+    <t>Осы нөмірлер бойынша хабарласыңыз: +7 708 609 6107</t>
+  </si>
+  <si>
+    <t>Аксессуар с металлической верхней ручкой и цепочкой с кожаным ремешком в виде змеи. Маленькая квадратная. Сделано в Китае. 
+Цвет: Белый</t>
+  </si>
+  <si>
+    <t>Сумка с цепочкой в виде змеи украшена знаменитой застежкой в форме змеиной головы, универсальная сумка через плечо в стиле ретро. Маленькая квадратная. Магнитная пряжка. Сделано в Китае. 
+Цвет: Белый</t>
+  </si>
+  <si>
+    <t>Изготовлен из искусственной кожи премиум-класса и металлической бронзовой кнопки.Вы можете положить другой небольшой аксессуар в эту сумку через плечо. Сделано в Китае. 
+Цвет: Белый</t>
+  </si>
+  <si>
+    <t>Материал верха экокожа Застежка молния Маленькая квадратная Сделано в Китае. 
+Цвет: Черный</t>
+  </si>
+  <si>
+    <t>Вышитая надпись Christian Dior Paris на союзке. Кожаная подошва с гравировкой звезды, талисмана Кристиана Диора. Удобная модель с плавными линиями дополнит образы в непринужденном стиле. Сделано в Китае. 
+Размер: 39</t>
+  </si>
+  <si>
+    <t>Материал: верх - текстиль; подошва - искусственный материал, резина. Кроссовки идеально подойдут как для занятия спортом, так и для прогулки в городе. Сделано в Китае. 
+Размер: 39 
+Цвет: Белый</t>
+  </si>
+  <si>
+    <t>Металл үстіңгі тұтқасы және жылан тәрізді Былғары бау тізбегі бар Аксессуар. Кішкентай шаршы. Қытайда жасалған. 
+Түсі: Ақ</t>
+  </si>
+  <si>
+    <t>Жылан тізбегі бар сөмкеде әйгілі жыланның басы тәрізді қапсырма бар, бұл әмбебап ретро иық сөмкесі. Кішкентай шаршы. Магниттік Ілмек. Қытайда жасалған. 
+Түсі: Ақ</t>
+  </si>
+  <si>
+    <t>Премиум жасанды былғарыдан және металл қола түймеден жасалған.Бұл сөмкеге тағы бір кішкентай аксессуарды қоюға болады. Қытайда жасалған. 
+Түсі: Ақ</t>
+  </si>
+  <si>
+    <t>Жоғарғы материал эко былғары сыдырма шағын шаршы Қытайда жасалған. 
+Түсі: Қара</t>
+  </si>
+  <si>
+    <t>Одақтағы Кристиан Диор Париждің кестеленген жазуы. Кристиан Диордың бойтұмары жұлдыз гравюрасы бар былғары табан. Тегіс сызықтары бар ыңғайлы модель кездейсоқ стильдегі көріністерді толықтырады. Қытайда жасалған. 
+Өлшемі: 39</t>
+  </si>
+  <si>
+    <t>Материал: жоғарғы-тоқыма; табаны-жасанды материал, резеңке. Кроссовкалар спортпен шұғылдануға да, қалада серуендеуге де өте ыңғайлы. Қытайда жасалған. 
+Өлшемі: 39 
+Түсі: Ақ</t>
+  </si>
+  <si>
+    <t>Способы доставки 
+Алматы по городу 
+Яндекс курьером согласно из тарифу за счет покупателя 
+Указать данные получателя 
+Имя 
+Адрес полный(адрес должен отображаться на карте Яндекс) 
+Телефон для связи
+в другие города мы отправляем через почту 
+Оплата за счет покупателя!</t>
+  </si>
+  <si>
+    <t>Жеткізу әдістері 
+Алматы қаласы бойынша 
+Яндекс курьер сатып алушының есебінен тарифке сәйкес 
+Алушының деректерін көрсету 
+Аты 
+Мекен-жайы толық (мекен-жайы Яндекс картасында көрсетілуі керек) 
+Байланыс телефоны
+басқа қалаларға біз пошта арқылы жібереміз 
+Сатып алушының есебінен төлеу!</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -71,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -86,9 +750,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -309,10 +970,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -323,565 +984,911 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="2" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="C20" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="C21" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
+      <c r="A32" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="34" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
+      <c r="A34" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
+      <c r="A35" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="5"/>
+      <c r="C35" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="36" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
+      <c r="A36" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="5"/>
+      <c r="C36" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
+      <c r="A37" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
+      <c r="C37" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="5"/>
+      <c r="C38" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
+      <c r="A39" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="5"/>
+      <c r="C39" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
+      <c r="A40" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
+      <c r="C40" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
+      <c r="A42" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="5"/>
+      <c r="C42" s="5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
+      <c r="A43" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
+      <c r="C43" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="5"/>
+      <c r="C44" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+      <c r="A45" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="5"/>
+      <c r="C45" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="46" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
+      <c r="A46" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="6"/>
+      <c r="C46" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="47" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
+      <c r="A47" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="5"/>
+      <c r="C47" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="48" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
+      <c r="A48" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="5"/>
-    </row>
-    <row r="49" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="200" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="50" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="A50" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="51" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="A51" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="52" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="A52" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="53" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="A53" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="54" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="5"/>
-    </row>
-    <row r="55" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
+      <c r="A54" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="200" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="5"/>
+      <c r="C55" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="56" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+      <c r="A56" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="5"/>
+      <c r="C56" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="57" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="5"/>
+      <c r="A57" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="58" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+      <c r="A58" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="59" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="5"/>
+      <c r="A59" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="60" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
+      <c r="A60" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="B60" s="1"/>
-      <c r="C60" s="5"/>
+      <c r="C60" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="61" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+      <c r="A61" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="B61" s="1"/>
-      <c r="C61" s="5"/>
+      <c r="C61" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="62" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
+      <c r="A62" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="B62" s="1"/>
-      <c r="C62" s="5"/>
+      <c r="C62" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="63" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
+      <c r="A63" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="B63" s="1"/>
-      <c r="C63" s="5"/>
-    </row>
-    <row r="64" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="B64" s="1"/>
-      <c r="C64" s="5"/>
-    </row>
-    <row r="65" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="212.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="67" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+      <c r="A67" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="68" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="4"/>
-    </row>
-    <row r="69" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="4"/>
-    </row>
-    <row r="70" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="4"/>
-    </row>
-    <row r="71" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="4"/>
-    </row>
-    <row r="72" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
+      <c r="A68" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="100" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="100" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="100" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="73" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
+      <c r="A73" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
+      <c r="C73" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="75" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-    </row>
-    <row r="76" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
+      <c r="A75" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="77" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
+      <c r="A77" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="C77" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="78" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
+      <c r="A78" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="C78" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="79" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
+      <c r="A79" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="C79" s="5" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="80" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
+      <c r="A80" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
+      <c r="C81" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
+      <c r="C82" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
+      <c r="C83" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="84" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
+      <c r="A84" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="85" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="A85" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="86" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
+      <c r="A86" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="87" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
+      <c r="A87" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="88" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
+      <c r="A88" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="89" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="A89" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="90" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="5"/>
-    </row>
-    <row r="97" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
+      <c r="A90" t="s">
+        <v>156</v>
+      </c>
+      <c r="C90" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="98" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
+      <c r="A98" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C98" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="99" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
+      <c r="A99" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C99" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="100" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
+      <c r="A100" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C100" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
-      <c r="C101" s="5"/>
+      <c r="A101" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
-      <c r="C102" s="5"/>
-    </row>
-    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
-      <c r="C104" s="5"/>
-    </row>
-    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
-      <c r="C108" s="5"/>
-    </row>
-    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="5"/>
-      <c r="C109" s="5"/>
-    </row>
-    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
-      <c r="C110" s="5"/>
-    </row>
-    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="5"/>
-      <c r="C111" s="5"/>
-    </row>
-    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="5"/>
-      <c r="C112" s="5"/>
-    </row>
-    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="5"/>
-      <c r="C113" s="5"/>
-    </row>
-    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="5"/>
-      <c r="C114" s="5"/>
-    </row>
-    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="5"/>
-    </row>
-    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="5"/>
-    </row>
-    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="5"/>
-    </row>
-    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="5"/>
-      <c r="C118" s="5"/>
-    </row>
-    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="5"/>
-      <c r="C119" s="5"/>
-    </row>
-    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="5"/>
-      <c r="C120" s="5"/>
+      <c r="A102" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>192</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
